--- a/Sprint2.xlsx
+++ b/Sprint2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\storage\homes\H8244\Dox\Desktop\GitHub\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\storage\homes\H8244\Dox\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,10 +35,10 @@
     <t>Kustannukset AWS-palveluista MTD</t>
   </si>
   <si>
-    <t>Tunnit yhteensä 9-1-15.1</t>
+    <t>https://github.com/DigiaMinions/Project/wiki/TUNTIKIRJAUKSET</t>
   </si>
   <si>
-    <t>https://github.com/DigiaMinions/Project/wiki/TUNTIKIRJAUKSET</t>
+    <t>Tunnit yhteensä 9.1-15.1</t>
   </si>
 </sst>
 </file>
@@ -394,7 +394,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1">
         <v>123</v>
@@ -449,7 +449,7 @@
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2"/>
     </row>

--- a/Sprint2.xlsx
+++ b/Sprint2.xlsx
@@ -35,10 +35,10 @@
     <t>Kustannukset AWS-palveluista MTD</t>
   </si>
   <si>
-    <t>https://github.com/DigiaMinions/Project/wiki/TUNTIKIRJAUKSET</t>
+    <t>Tunnit yhteensä 9.1-15.1</t>
   </si>
   <si>
-    <t>Tunnit yhteensä 9.1-15.1</t>
+    <t>https://github.com/DigiaMinions/Project/wiki/Resurssit-ja-ty%C3%B6tunnit</t>
   </si>
 </sst>
 </file>
@@ -48,7 +48,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +61,14 @@
       <color rgb="FF333333"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -101,18 +109,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -394,26 +405,26 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="93.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="28.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="93.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -422,7 +433,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B1*50)</f>
-        <v>6150</v>
+        <v>6050</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -440,7 +451,7 @@
       </c>
       <c r="B4" s="1">
         <f>SUM(B2:B3)</f>
-        <v>6155.25</v>
+        <v>6055.25</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -448,8 +459,8 @@
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>3</v>
+      <c r="A6" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -493,7 +504,10 @@
       <c r="E31" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>